--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14697" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54620" uniqueCount="944">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54620" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75969" uniqueCount="944">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31912,37 +31912,37 @@
         <v>89</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>89</v>
@@ -31951,7 +31951,7 @@
         <v>89</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>89</v>
@@ -31969,7 +31969,7 @@
         <v>89</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>89</v>
@@ -31987,7 +31987,7 @@
         <v>89</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>89</v>
@@ -31996,19 +31996,19 @@
         <v>89</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="AL10" s="5" t="s">
         <v>89</v>
@@ -32367,13 +32367,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32385,10 +32385,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>89</v>
@@ -32403,7 +32403,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32418,7 +32418,7 @@
         <v>89</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>89</v>
@@ -32427,7 +32427,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32439,10 +32439,10 @@
         <v>89</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
@@ -32457,7 +32457,7 @@
         <v>89</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>89</v>
@@ -32469,10 +32469,10 @@
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>89</v>
@@ -33664,7 +33664,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>89</v>
@@ -33673,34 +33673,34 @@
         <v>89</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>89</v>
@@ -33712,7 +33712,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33736,10 +33736,10 @@
         <v>89</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33748,10 +33748,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26">
@@ -33991,73 +33991,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -34069,31 +34069,31 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>89</v>
@@ -35267,115 +35267,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40">
@@ -35383,115 +35383,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41">
@@ -35499,115 +35499,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>117</v>
+        <v>416</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>117</v>
+        <v>471</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>117</v>
+        <v>525</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>117</v>
+        <v>551</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>117</v>
+        <v>580</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>117</v>
+        <v>602</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>117</v>
+        <v>629</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>117</v>
+        <v>648</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>117</v>
+        <v>674</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>117</v>
+        <v>689</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>117</v>
+        <v>717</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>117</v>
+        <v>742</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>117</v>
+        <v>764</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>117</v>
+        <v>793</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>117</v>
+        <v>823</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>117</v>
+        <v>851</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>117</v>
+        <v>877</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>117</v>
+        <v>906</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>117</v>
+        <v>935</v>
       </c>
     </row>
     <row r="42">
